--- a/data/OnlineStoreAppDatabase.xlsx
+++ b/data/OnlineStoreAppDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OnlineStoreAppBackendAPI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6865762-3682-4E35-A40D-CBA9FB9AFF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25401B8F-AF04-41AB-9B87-42305B95F564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{78640D3A-98CE-471C-B44F-E0F00B51329B}"/>
+    <workbookView xWindow="432" yWindow="24" windowWidth="19500" windowHeight="11508" activeTab="2" xr2:uid="{78640D3A-98CE-471C-B44F-E0F00B51329B}"/>
   </bookViews>
   <sheets>
     <sheet name="Managers" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="172">
   <si>
     <t>Email</t>
   </si>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D87FB-2A61-45A2-90B9-AC1E61A8CBD4}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,18 +1100,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
+      <c r="C2" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.0</v>
       </c>
       <c r="E2" t="s">
         <v>148</v>
@@ -1119,7 +1119,7 @@
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3860,18 +3860,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>167</v>
       </c>
       <c r="B122" t="s">
         <v>168</v>
       </c>
-      <c r="C122" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.0</v>
+      <c r="C122">
+        <v>1250</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>151</v>
@@ -3883,18 +3883,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>169</v>
       </c>
       <c r="B123" t="s">
         <v>168</v>
       </c>
-      <c r="C123" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.0</v>
+      <c r="C123">
+        <v>1500</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>151</v>
@@ -3906,18 +3906,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>170</v>
       </c>
       <c r="B124" t="s">
         <v>168</v>
       </c>
-      <c r="C124" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3.0</v>
+      <c r="C124">
+        <v>1700</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
       </c>
       <c r="E124" t="s">
         <v>151</v>
@@ -3929,18 +3929,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>171</v>
       </c>
       <c r="B125" t="s">
         <v>168</v>
       </c>
-      <c r="C125" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>3.0</v>
+      <c r="C125">
+        <v>1700</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
       </c>
       <c r="E125" t="s">
         <v>151</v>

--- a/data/OnlineStoreAppDatabase.xlsx
+++ b/data/OnlineStoreAppDatabase.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OnlineStoreAppBackendAPI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25401B8F-AF04-41AB-9B87-42305B95F564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9905BBEF-ED0F-41B1-A57D-545E8CE3E18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="24" windowWidth="19500" windowHeight="11508" activeTab="2" xr2:uid="{78640D3A-98CE-471C-B44F-E0F00B51329B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C14D4055-2B15-46AB-A63E-3537D57E988E}"/>
   </bookViews>
   <sheets>
     <sheet name="Managers" sheetId="1" r:id="rId1"/>
     <sheet name="Customers" sheetId="2" r:id="rId2"/>
     <sheet name="Products" sheetId="3" r:id="rId3"/>
-    <sheet name="Carts" sheetId="4" r:id="rId4"/>
-    <sheet name="Orders" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="174">
   <si>
     <t>Email</t>
   </si>
@@ -46,46 +44,70 @@
     <t>view,add,remove</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Paramjot</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>C#00001</t>
+  </si>
+  <si>
+    <t>Paramjot Singh</t>
+  </si>
+  <si>
     <t>Marathahalli</t>
   </si>
   <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>8083058361</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>C#00002</t>
+  </si>
+  <si>
+    <t>Aman Kumar</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>aman@gmail.com</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
     <t>ProductId</t>
   </si>
   <si>
-    <t>ProductName</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>StockQuantity</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>ImageUrl</t>
   </si>
   <si>
     <t>P#00001</t>
@@ -112,6 +134,33 @@
     <t>P#00008</t>
   </si>
   <si>
+    <t>Light Blue Shirt</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpiha2jrD4a3JhEkEuFlAjQdEt0mxd2QtOFqnYe5V1YP2vXTO9vSDkRSME7OeDP4xcQ1LI6w28Mr8Y8Dg_Vh4xYQDkTWF1RQBoEGU=s2560</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>Blue Shirt</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihaEoiO4UlnklBZy8xRMom6XxfmH9b4ufHqz5SeSyxRbIdIyi4Lanpf6DbGloNiwEAF5RIkGgJ9KmURG5X4xVBJy52gvvE8sXgw=s1600-rw-v1</t>
+  </si>
+  <si>
+    <t>White Shirt</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZKXf2bjjC92ZfsL6_rOsaNJzFXxno55nv5zkWz-41_oIGMopRCq24GbQSBM_VhSafjr2ncJk5JJingKZvVLPrP4j9hRPFNPOE=s2560</t>
+  </si>
+  <si>
+    <t>Dark Blue Shirt</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZZtzxbL20IBk6CkmLpHhD0nc9rrO5MlrkGCyUQd9XqOg5PwG7zJgCBrUs5x5ILbRadySZafp7D-hCcqZJI79bfcf7kL2DSPVM=s1600-rw-v1</t>
+  </si>
+  <si>
     <t>P#00009</t>
   </si>
   <si>
@@ -160,33 +209,6 @@
     <t>P#00024</t>
   </si>
   <si>
-    <t>Light Blue Shirt</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpiha2jrD4a3JhEkEuFlAjQdEt0mxd2QtOFqnYe5V1YP2vXTO9vSDkRSME7OeDP4xcQ1LI6w28Mr8Y8Dg_Vh4xYQDkTWF1RQBoEGU=s2560</t>
-  </si>
-  <si>
-    <t>Blue Shirt</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihaEoiO4UlnklBZy8xRMom6XxfmH9b4ufHqz5SeSyxRbIdIyi4Lanpf6DbGloNiwEAF5RIkGgJ9KmURG5X4xVBJy52gvvE8sXgw=s1600-rw-v1</t>
-  </si>
-  <si>
-    <t>White Shirt</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZKXf2bjjC92ZfsL6_rOsaNJzFXxno55nv5zkWz-41_oIGMopRCq24GbQSBM_VhSafjr2ncJk5JJingKZvVLPrP4j9hRPFNPOE=s2560</t>
-  </si>
-  <si>
-    <t>Dark Blue Shirt</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihZZtzxbL20IBk6CkmLpHhD0nc9rrO5MlrkGCyUQd9XqOg5PwG7zJgCBrUs5x5ILbRadySZafp7D-hCcqZJI79bfcf7kL2DSPVM=s1600-rw-v1</t>
-  </si>
-  <si>
     <t>P#00025</t>
   </si>
   <si>
@@ -475,76 +497,58 @@
     <t>P#00120</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
     <t>tshirt</t>
   </si>
   <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>saree</t>
+  </si>
+  <si>
+    <t>chudi</t>
+  </si>
+  <si>
+    <t>Round Neck T-Shirt</t>
+  </si>
+  <si>
+    <t>Formal Pant</t>
+  </si>
+  <si>
+    <t>Silk Saree</t>
+  </si>
+  <si>
+    <t>Fancy Bangles</t>
+  </si>
+  <si>
     <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihay041-Ped2_cWY08rKN2BXHPcRKlReiVHXksXncGcQJmuh32lQ451BPHi_gXJS1m2MWbVXhLKRTFEIIX-KwGwlkKXqeGMh5w=s1600-rw-v1</t>
   </si>
   <si>
-    <t>pant</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihb6GkQVaFlXBNCocaVqrvbm_Lb_iWTQtwDpVBqx34VKe1_JB3_H740ECXN5nsV3TleKbOkuIVw6nSmKbQdyx8rLC06ViI8OFw=s1600-rw-v1</t>
   </si>
   <si>
-    <t>saree</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihanTMXmhKKwbPiCrr8M2TMqA7b0H0qsDLaooShpU8AYe6-RNq-qbBR04De-WC3dbK_Y8ld2WjBic5aL6VqsxC__wpICPx3-lEE=s2560</t>
   </si>
   <si>
-    <t>chudi</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/drive-viewer/AKGpihbMu-mT_AZLbEjMi9ruBIIYppFcGi8Vzq0t12rbG2jM3t62an0-2aRJbbdRssGreHIHeEdMzaO_OpOZL9VyA3LHEKVOirDRXGg=s2560</t>
   </si>
   <si>
+    <t>P#00121</t>
+  </si>
+  <si>
+    <t>C#00003</t>
+  </si>
+  <si>
+    <t>Kishore</t>
+  </si>
+  <si>
+    <t>0123789456</t>
+  </si>
+  <si>
     <t>kishore@gmail.com</t>
   </si>
   <si>
-    <t>kishor@123</t>
-  </si>
-  <si>
-    <t>Kishore</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>CityLane</t>
-  </si>
-  <si>
-    <t>Round Neck T-Shirt</t>
-  </si>
-  <si>
-    <t>Cotton Pant</t>
-  </si>
-  <si>
-    <t>Silk Saree</t>
-  </si>
-  <si>
-    <t>Fancy Bangles</t>
-  </si>
-  <si>
-    <t>P#00121</t>
-  </si>
-  <si>
-    <t>Formal Pant</t>
-  </si>
-  <si>
-    <t>P#00122</t>
-  </si>
-  <si>
-    <t>P#00123</t>
-  </si>
-  <si>
-    <t>P#00124</t>
+    <t>Patna</t>
   </si>
 </sst>
 </file>
@@ -552,8 +556,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -600,20 +612,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,37 +937,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9FD38C-F054-4390-84B7-8405025D085D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA52D3-98C2-45B2-A882-7F37D66CB9A5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234</v>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -967,7 +975,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AC295922-E587-4737-AA28-71E6B92FBF4B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C5AB0315-3C16-4A42-AF54-C7764DDAEDCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -975,137 +983,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D651F502-5D05-480C-B7D1-D8C6CCBCBDCD}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22289BA1-EEE9-47AF-89E2-B0A06405A6E0}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8083058361</v>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A967093-1BFD-4F3D-BF03-450AD26017F3}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{666845B1-6C08-4946-883B-C1E9A1254392}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{0313E55F-2068-4C06-9E88-D8DD69DB4E46}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C3CE85AE-D2B4-46DE-99DD-9F6BD76B4177}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D87FB-2A61-45A2-90B9-AC1E61A8CBD4}">
-  <dimension ref="A1:G125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891B07B9-415D-4BF9-BA82-CAACB6014C7F}">
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99:D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" style="4" width="22.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="166.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="167.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
         <v>1250.0</v>
@@ -1114,2873 +1158,2755 @@
         <v>10.0</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="5">
         <v>1785</v>
       </c>
-      <c r="D3" s="4">
-        <v>5</v>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>1550</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5">
         <v>1860</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="5">
-        <v>1785</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
+        <v>1550</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5">
         <v>1860</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D8" s="4">
+        <v>1785</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="5">
-        <v>1550</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
+        <v>1250</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>1250</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
+      <c r="D10">
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>1785</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <v>1550</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
         <v>1860</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="5">
-        <v>1785</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
+        <v>1550</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
         <v>1860</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D16" s="4">
+        <v>1785</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="5">
-        <v>1550</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
+        <v>1250</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="5">
         <v>1250</v>
       </c>
-      <c r="D18" s="4">
-        <v>4</v>
+      <c r="D18">
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>1785</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
+      <c r="D19">
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="5">
         <v>1550</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5">
         <v>1860</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="5">
-        <v>1785</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
+        <v>1550</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5">
         <v>1860</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D24" s="4">
+        <v>1785</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="5">
-        <v>1550</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
+        <v>1250</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C26" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C27" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C28" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D28" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>163</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>65</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C32" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>67</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>163</v>
+        <v>68</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C34" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C35" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D35" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C36" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>163</v>
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>72</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C38" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C39" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>74</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C40" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C41" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>163</v>
+        <v>76</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C42" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>163</v>
+        <v>77</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C43" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>163</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C44" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C45" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>80</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C46" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>163</v>
+        <v>81</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C47" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>82</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C48" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D48" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>163</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C49" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D49" s="4">
-        <v>4</v>
+        <v>450</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>84</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C50" s="5">
-        <v>995</v>
-      </c>
-      <c r="D50" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>164</v>
+        <v>85</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C51" s="5">
-        <v>995</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>164</v>
+        <v>86</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C52" s="5">
-        <v>995</v>
-      </c>
-      <c r="D52" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>164</v>
+        <v>87</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C53" s="5">
-        <v>995</v>
-      </c>
-      <c r="D53" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>164</v>
+        <v>88</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C54" s="5">
-        <v>995</v>
-      </c>
-      <c r="D54" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C55" s="5">
-        <v>995</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>90</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C56" s="5">
-        <v>995</v>
-      </c>
-      <c r="D56" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>164</v>
+        <v>91</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C57" s="5">
-        <v>995</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>164</v>
+        <v>92</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C58" s="5">
-        <v>995</v>
-      </c>
-      <c r="D58" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>93</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C59" s="5">
-        <v>995</v>
-      </c>
-      <c r="D59" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C60" s="5">
-        <v>995</v>
-      </c>
-      <c r="D60" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>164</v>
+        <v>95</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C61" s="5">
-        <v>995</v>
-      </c>
-      <c r="D61" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>164</v>
+        <v>96</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C62" s="5">
-        <v>995</v>
-      </c>
-      <c r="D62" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>164</v>
+        <v>97</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C63" s="5">
-        <v>995</v>
-      </c>
-      <c r="D63" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>164</v>
+        <v>98</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C64" s="5">
-        <v>995</v>
-      </c>
-      <c r="D64" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>164</v>
+        <v>99</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C65" s="5">
-        <v>995</v>
-      </c>
-      <c r="D65" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>100</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C66" s="5">
-        <v>995</v>
-      </c>
-      <c r="D66" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>164</v>
+        <v>101</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C67" s="5">
-        <v>995</v>
-      </c>
-      <c r="D67" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>164</v>
+        <v>102</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C68" s="5">
-        <v>995</v>
-      </c>
-      <c r="D68" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>103</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C69" s="5">
-        <v>995</v>
-      </c>
-      <c r="D69" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>164</v>
+        <v>104</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C70" s="5">
-        <v>995</v>
-      </c>
-      <c r="D70" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>105</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C71" s="5">
-        <v>995</v>
-      </c>
-      <c r="D71" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>164</v>
+        <v>106</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C72" s="5">
-        <v>995</v>
-      </c>
-      <c r="D72" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C73" s="5">
-        <v>995</v>
-      </c>
-      <c r="D73" s="4">
-        <v>5</v>
+        <v>1250</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D74" s="4">
+        <v>108</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74">
+        <v>3250</v>
+      </c>
+      <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D75" s="4">
+        <v>109</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75">
+        <v>3250</v>
+      </c>
+      <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D76" s="4">
+        <v>110</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76">
+        <v>3250</v>
+      </c>
+      <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D77" s="4">
+        <v>111</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77">
+        <v>3250</v>
+      </c>
+      <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D78" s="4">
+        <v>112</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78">
+        <v>3250</v>
+      </c>
+      <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D79" s="4">
+        <v>113</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
+        <v>3250</v>
+      </c>
+      <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D80" s="4">
+        <v>114</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80">
+        <v>3250</v>
+      </c>
+      <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D81" s="4">
+        <v>115</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81">
+        <v>3250</v>
+      </c>
+      <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D82" s="4">
+        <v>116</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82">
+        <v>3250</v>
+      </c>
+      <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D83" s="4">
+        <v>117</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83">
+        <v>3250</v>
+      </c>
+      <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D84" s="4">
+        <v>118</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84">
+        <v>3250</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D85" s="4">
+        <v>119</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85">
+        <v>3250</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D86" s="4">
+        <v>120</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86">
+        <v>3250</v>
+      </c>
+      <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D87" s="4">
+        <v>121</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87">
+        <v>3250</v>
+      </c>
+      <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D88" s="4">
+        <v>122</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88">
+        <v>3250</v>
+      </c>
+      <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D89" s="4">
+        <v>123</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89">
+        <v>3250</v>
+      </c>
+      <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D90" s="4">
+        <v>124</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90">
+        <v>3250</v>
+      </c>
+      <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D91" s="4">
+        <v>125</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91">
+        <v>3250</v>
+      </c>
+      <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D92" s="4">
+        <v>126</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92">
+        <v>3250</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D93" s="4">
+        <v>127</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93">
+        <v>3250</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D94" s="4">
+        <v>128</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94">
+        <v>3250</v>
+      </c>
+      <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D95" s="4">
+        <v>129</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95">
+        <v>3250</v>
+      </c>
+      <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D96" s="4">
+        <v>130</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96">
+        <v>3250</v>
+      </c>
+      <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1225</v>
-      </c>
-      <c r="D97" s="4">
+        <v>131</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97">
+        <v>3250</v>
+      </c>
+      <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="4">
-        <v>225</v>
-      </c>
-      <c r="D98" s="4">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98">
+        <v>3250</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="4">
-        <v>300</v>
-      </c>
-      <c r="D99" s="4">
+        <v>133</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99">
+        <v>225</v>
+      </c>
+      <c r="D99">
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="4">
+        <v>134</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100">
         <v>225</v>
       </c>
-      <c r="D100" s="4">
-        <v>4</v>
+      <c r="D100">
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" s="4">
-        <v>300</v>
-      </c>
-      <c r="D101" s="4">
+        <v>135</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101">
+        <v>225</v>
+      </c>
+      <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" s="4">
+        <v>136</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102">
         <v>225</v>
       </c>
-      <c r="D102" s="4">
-        <v>4</v>
+      <c r="D102">
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" s="4">
-        <v>300</v>
-      </c>
-      <c r="D103" s="4">
+        <v>137</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103">
+        <v>225</v>
+      </c>
+      <c r="D103">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="4">
+        <v>138</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104">
         <v>225</v>
       </c>
-      <c r="D104" s="4">
-        <v>4</v>
+      <c r="D104">
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C105" s="4">
-        <v>300</v>
-      </c>
-      <c r="D105" s="4">
+        <v>139</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105">
+        <v>225</v>
+      </c>
+      <c r="D105">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>132</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="4">
+        <v>140</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106">
         <v>225</v>
       </c>
-      <c r="D106" s="4">
-        <v>4</v>
+      <c r="D106">
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="4">
-        <v>300</v>
-      </c>
-      <c r="D107" s="4">
+        <v>141</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107">
+        <v>225</v>
+      </c>
+      <c r="D107">
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" s="4">
+        <v>142</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108">
         <v>225</v>
       </c>
-      <c r="D108" s="4">
-        <v>4</v>
+      <c r="D108">
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" s="4">
-        <v>300</v>
-      </c>
-      <c r="D109" s="4">
+        <v>143</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109">
+        <v>225</v>
+      </c>
+      <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="4">
+        <v>144</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110">
         <v>225</v>
       </c>
-      <c r="D110" s="4">
-        <v>4</v>
+      <c r="D110">
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C111" s="4">
-        <v>300</v>
-      </c>
-      <c r="D111" s="4">
+        <v>145</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111">
+        <v>225</v>
+      </c>
+      <c r="D111">
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="4">
+        <v>146</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112">
         <v>225</v>
       </c>
-      <c r="D112" s="4">
-        <v>4</v>
+      <c r="D112">
+        <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>139</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" s="4">
-        <v>300</v>
-      </c>
-      <c r="D113" s="4">
+        <v>147</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113">
+        <v>225</v>
+      </c>
+      <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C114" s="4">
+        <v>148</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114">
         <v>225</v>
       </c>
-      <c r="D114" s="4">
-        <v>4</v>
+      <c r="D114">
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="4">
-        <v>300</v>
-      </c>
-      <c r="D115" s="4">
+        <v>149</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115">
+        <v>225</v>
+      </c>
+      <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C116" s="4">
+        <v>150</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116">
         <v>225</v>
       </c>
-      <c r="D116" s="4">
-        <v>4</v>
+      <c r="D116">
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>143</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" s="4">
-        <v>300</v>
-      </c>
-      <c r="D117" s="4">
+        <v>151</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117">
+        <v>225</v>
+      </c>
+      <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="4">
+        <v>152</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118">
         <v>225</v>
       </c>
-      <c r="D118" s="4">
-        <v>4</v>
+      <c r="D118">
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C119" s="4">
-        <v>300</v>
-      </c>
-      <c r="D119" s="4">
+        <v>153</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119">
+        <v>225</v>
+      </c>
+      <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="4">
+        <v>154</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120">
         <v>225</v>
       </c>
-      <c r="D120" s="4">
-        <v>4</v>
+      <c r="D120">
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C121" s="4">
-        <v>300</v>
-      </c>
-      <c r="D121" s="4">
+        <v>155</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121">
+        <v>225</v>
+      </c>
+      <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B122" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122">
-        <v>1250</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>151</v>
-      </c>
-      <c r="F122" t="s">
-        <v>44</v>
-      </c>
-      <c r="G122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" t="s">
-        <v>168</v>
-      </c>
-      <c r="C123">
-        <v>1500</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" t="s">
-        <v>168</v>
-      </c>
-      <c r="C124">
-        <v>1700</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-      <c r="E124" t="s">
-        <v>151</v>
-      </c>
-      <c r="F124" t="s">
-        <v>44</v>
-      </c>
-      <c r="G124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>171</v>
-      </c>
-      <c r="B125" t="s">
-        <v>168</v>
-      </c>
-      <c r="C125">
-        <v>1700</v>
-      </c>
-      <c r="D125">
-        <v>3</v>
-      </c>
-      <c r="E125" t="s">
-        <v>151</v>
-      </c>
-      <c r="F125" t="s">
-        <v>44</v>
-      </c>
-      <c r="G125" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF3BB7A-2AE6-4A07-A5FB-9984BF8B612C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831B309-21B1-4FDA-8B7C-CB9CD5E42528}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/OnlineStoreAppDatabase.xlsx
+++ b/data/OnlineStoreAppDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
   <si>
     <t>Email</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>Patna</t>
+  </si>
+  <si>
+    <t>kishorekumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishore kumar</t>
   </si>
 </sst>
 </file>
@@ -1075,13 +1081,13 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>

--- a/data/OnlineStoreAppDatabase.xlsx
+++ b/data/OnlineStoreAppDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="186">
   <si>
     <t>Email</t>
   </si>
@@ -555,6 +555,36 @@
   </si>
   <si>
     <t>Kishore kumar</t>
+  </si>
+  <si>
+    <t>C#00004</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>9935465163</t>
+  </si>
+  <si>
+    <t>amankumar@gmail.com</t>
+  </si>
+  <si>
+    <t>C#00005</t>
+  </si>
+  <si>
+    <t>9031398069</t>
+  </si>
+  <si>
+    <t>Pragathi Layout</t>
+  </si>
+  <si>
+    <t>C#00006</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>abhi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22289BA1-EEE9-47AF-89E2-B0A06405A6E0}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -1030,47 +1060,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1078,31 +1108,51 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C3CE85AE-D2B4-46DE-99DD-9F6BD76B4177}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>

--- a/data/OnlineStoreAppDatabase.xlsx
+++ b/data/OnlineStoreAppDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="205">
   <si>
     <t>Email</t>
   </si>
@@ -585,6 +585,63 @@
   </si>
   <si>
     <t>abhi@gmail.com</t>
+  </si>
+  <si>
+    <t>C#00007</t>
+  </si>
+  <si>
+    <t>Vikash Kumar</t>
+  </si>
+  <si>
+    <t>9031398556</t>
+  </si>
+  <si>
+    <t>vikashkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>9031398555</t>
+  </si>
+  <si>
+    <t>P#00125</t>
+  </si>
+  <si>
+    <t>P#00126</t>
+  </si>
+  <si>
+    <t>Bangles</t>
+  </si>
+  <si>
+    <t>Black Shirt</t>
+  </si>
+  <si>
+    <t>P#00130</t>
+  </si>
+  <si>
+    <t>P#00131</t>
+  </si>
+  <si>
+    <t>P#00132</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>avi@gmail.com</t>
+  </si>
+  <si>
+    <t>P#00133</t>
+  </si>
+  <si>
+    <t>P#00134</t>
+  </si>
+  <si>
+    <t>ama@gmail.com</t>
+  </si>
+  <si>
+    <t>nitin@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA52D3-98C2-45B2-A882-7F37D66CB9A5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1009,6 +1066,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C5AB0315-3C16-4A42-AF54-C7764DDAEDCC}"/>
@@ -1020,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22289BA1-EEE9-47AF-89E2-B0A06405A6E0}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -1152,6 +1231,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1160,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891B07B9-415D-4BF9-BA82-CAACB6014C7F}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="D99" sqref="D99:D121"/>
@@ -1202,16 +1304,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.0</v>
+        <v>1550.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1220,21 +1322,21 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5">
-        <v>1785</v>
+        <v>1860</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1243,12 +1345,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -1271,7 +1373,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -1294,16 +1396,16 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
-        <v>1550</v>
+        <v>1785</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1312,21 +1414,21 @@
         <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
-        <v>1860</v>
+        <v>1250</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -1335,21 +1437,21 @@
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1785</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.0</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1357,22 +1459,22 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5">
-        <v>1250</v>
+        <v>1785</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1381,21 +1483,21 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1404,21 +1506,21 @@
         <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5">
-        <v>1785</v>
+        <v>1860</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -1427,12 +1529,12 @@
         <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -1455,7 +1557,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>42</v>
@@ -1478,16 +1580,16 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
-        <v>1550</v>
+        <v>1785</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1496,21 +1598,21 @@
         <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
-        <v>1860</v>
+        <v>1250</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -1519,21 +1621,21 @@
         <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
-        <v>1785</v>
+        <v>1250</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -1542,21 +1644,21 @@
         <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
-        <v>1250</v>
+        <v>1785</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -1565,21 +1667,21 @@
         <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -1588,21 +1690,21 @@
         <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5">
-        <v>1785</v>
+        <v>1550</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -1611,21 +1713,21 @@
         <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5">
-        <v>1550</v>
+        <v>1860</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
@@ -1634,21 +1736,21 @@
         <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
-        <v>1860</v>
+        <v>1785</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1657,21 +1759,21 @@
         <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -1680,81 +1782,81 @@
         <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="C23" s="5">
-        <v>1860</v>
+        <v>450</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C24" s="5">
-        <v>1785</v>
+        <v>450</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="C25" s="5">
-        <v>1250</v>
+        <v>450</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>160</v>
@@ -1777,7 +1879,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>160</v>
@@ -1800,7 +1902,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>160</v>
@@ -1823,7 +1925,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>160</v>
@@ -1846,7 +1948,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>160</v>
@@ -1869,7 +1971,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>160</v>
@@ -1892,7 +1994,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>160</v>
@@ -1915,7 +2017,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>160</v>
@@ -1938,7 +2040,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>160</v>
@@ -1961,7 +2063,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>160</v>
@@ -1984,7 +2086,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>160</v>
@@ -2005,18 +2107,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="5">
-        <v>450</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
+      <c r="C37" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>39.0</v>
       </c>
       <c r="E37" t="s">
         <v>156</v>
@@ -2024,13 +2126,13 @@
       <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>160</v>
@@ -2051,18 +2153,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="5">
-        <v>450</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
+      <c r="C39" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.0</v>
       </c>
       <c r="E39" t="s">
         <v>156</v>
@@ -2070,13 +2172,13 @@
       <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>160</v>
@@ -2099,7 +2201,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>160</v>
@@ -2122,7 +2224,7 @@
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>160</v>
@@ -2145,7 +2247,7 @@
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>160</v>
@@ -2168,7 +2270,7 @@
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>160</v>
@@ -2191,7 +2293,7 @@
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>160</v>
@@ -2214,99 +2316,99 @@
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" s="5">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="5">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="5">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="5">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>161</v>
@@ -2329,7 +2431,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>161</v>
@@ -2352,7 +2454,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>161</v>
@@ -2375,7 +2477,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>161</v>
@@ -2398,7 +2500,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>161</v>
@@ -2421,7 +2523,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>161</v>
@@ -2444,7 +2546,7 @@
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>161</v>
@@ -2467,7 +2569,7 @@
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>161</v>
@@ -2490,7 +2592,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>161</v>
@@ -2513,7 +2615,7 @@
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>161</v>
@@ -2536,7 +2638,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>161</v>
@@ -2559,7 +2661,7 @@
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>161</v>
@@ -2582,7 +2684,7 @@
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>161</v>
@@ -2605,7 +2707,7 @@
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>161</v>
@@ -2628,7 +2730,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>161</v>
@@ -2651,7 +2753,7 @@
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>161</v>
@@ -2674,7 +2776,7 @@
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>161</v>
@@ -2697,7 +2799,7 @@
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>161</v>
@@ -2720,7 +2822,7 @@
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>161</v>
@@ -2743,122 +2845,122 @@
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1250</v>
+        <v>162</v>
+      </c>
+      <c r="C69">
+        <v>3250</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1250</v>
+        <v>162</v>
+      </c>
+      <c r="C70">
+        <v>3250</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1250</v>
+        <v>162</v>
+      </c>
+      <c r="C71">
+        <v>3250</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1250</v>
+        <v>162</v>
+      </c>
+      <c r="C72">
+        <v>3250</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1250</v>
+        <v>162</v>
+      </c>
+      <c r="C73">
+        <v>3250</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>162</v>
@@ -2881,7 +2983,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>162</v>
@@ -2904,7 +3006,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>162</v>
@@ -2927,7 +3029,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>162</v>
@@ -2950,7 +3052,7 @@
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>162</v>
@@ -2973,7 +3075,7 @@
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>162</v>
@@ -2996,7 +3098,7 @@
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>162</v>
@@ -3019,7 +3121,7 @@
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>162</v>
@@ -3042,7 +3144,7 @@
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>162</v>
@@ -3065,7 +3167,7 @@
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>162</v>
@@ -3088,7 +3190,7 @@
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>162</v>
@@ -3111,7 +3213,7 @@
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>162</v>
@@ -3134,7 +3236,7 @@
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>162</v>
@@ -3157,7 +3259,7 @@
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>162</v>
@@ -3180,7 +3282,7 @@
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>162</v>
@@ -3203,7 +3305,7 @@
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>162</v>
@@ -3226,7 +3328,7 @@
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>162</v>
@@ -3249,7 +3351,7 @@
     </row>
     <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>162</v>
@@ -3261,165 +3363,165 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98">
-        <v>3250</v>
+        <v>225</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
         <v>159</v>
@@ -3433,7 +3535,7 @@
     </row>
     <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>163</v>
@@ -3456,7 +3558,7 @@
     </row>
     <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>163</v>
@@ -3479,7 +3581,7 @@
     </row>
     <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>163</v>
@@ -3502,7 +3604,7 @@
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>163</v>
@@ -3525,7 +3627,7 @@
     </row>
     <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>163</v>
@@ -3548,7 +3650,7 @@
     </row>
     <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>163</v>
@@ -3571,7 +3673,7 @@
     </row>
     <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>163</v>
@@ -3594,7 +3696,7 @@
     </row>
     <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>163</v>
@@ -3617,7 +3719,7 @@
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>163</v>
@@ -3640,7 +3742,7 @@
     </row>
     <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>163</v>
@@ -3663,7 +3765,7 @@
     </row>
     <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>163</v>
@@ -3686,7 +3788,7 @@
     </row>
     <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>163</v>
@@ -3709,7 +3811,7 @@
     </row>
     <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>163</v>
@@ -3732,7 +3834,7 @@
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>163</v>
@@ -3755,7 +3857,7 @@
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>163</v>
@@ -3776,188 +3878,50 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114">
-        <v>225</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>25.0</v>
       </c>
       <c r="E114" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C115">
-        <v>225</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>25.0</v>
       </c>
       <c r="E115" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C116">
-        <v>225</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>159</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117">
-        <v>225</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>159</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>152</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C118">
-        <v>225</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118" t="s">
-        <v>159</v>
-      </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119">
-        <v>225</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>159</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120">
-        <v>225</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>159</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121">
-        <v>225</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>159</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>167</v>
+      <c r="G115" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
